--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H2">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I2">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J2">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>3854.505604729737</v>
+        <v>2539.532975236051</v>
       </c>
       <c r="R2">
-        <v>34690.55044256764</v>
+        <v>22855.79677712446</v>
       </c>
       <c r="S2">
-        <v>0.3083646221840036</v>
+        <v>0.2180163419403723</v>
       </c>
       <c r="T2">
-        <v>0.3279626462436016</v>
+        <v>0.2241832964358673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H3">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I3">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J3">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>1694.468344680292</v>
+        <v>1919.870233336825</v>
       </c>
       <c r="R3">
-        <v>15250.21510212263</v>
+        <v>17278.83210003142</v>
       </c>
       <c r="S3">
-        <v>0.1355593024093497</v>
+        <v>0.1648189211771892</v>
       </c>
       <c r="T3">
-        <v>0.1441747345276797</v>
+        <v>0.1694810982316703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H4">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I4">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J4">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>2199.007042811633</v>
+        <v>2582.380823737612</v>
       </c>
       <c r="R4">
-        <v>19791.0633853047</v>
+        <v>23241.42741363851</v>
       </c>
       <c r="S4">
-        <v>0.1759229445935953</v>
+        <v>0.2216947864738429</v>
       </c>
       <c r="T4">
-        <v>0.1871036762753357</v>
+        <v>0.2279657918852016</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H5">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I5">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J5">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>1077.264730751278</v>
+        <v>575.9248979950235</v>
       </c>
       <c r="R5">
-        <v>6463.588384507671</v>
+        <v>3455.549387970141</v>
       </c>
       <c r="S5">
-        <v>0.0861823449634242</v>
+        <v>0.04944257102295987</v>
       </c>
       <c r="T5">
-        <v>0.06110642592201088</v>
+        <v>0.03389409086658644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.31553166666666</v>
+        <v>40.013281</v>
       </c>
       <c r="H6">
-        <v>105.946595</v>
+        <v>120.039843</v>
       </c>
       <c r="I6">
-        <v>0.8721848429085958</v>
+        <v>0.9259567983352626</v>
       </c>
       <c r="J6">
-        <v>0.8970630844856526</v>
+        <v>0.9352019795456475</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>2076.917247413045</v>
+        <v>3168.169789095875</v>
       </c>
       <c r="R6">
-        <v>18692.2552267174</v>
+        <v>28513.52810186288</v>
       </c>
       <c r="S6">
-        <v>0.166155628758223</v>
+        <v>0.2719841777208982</v>
       </c>
       <c r="T6">
-        <v>0.1767156015170248</v>
+        <v>0.2796777021263217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J7">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>185.5439636195102</v>
+        <v>107.8930796440506</v>
       </c>
       <c r="R7">
-        <v>1669.895672575592</v>
+        <v>971.0377167964549</v>
       </c>
       <c r="S7">
-        <v>0.01484371800363862</v>
+        <v>0.009262511955565655</v>
       </c>
       <c r="T7">
-        <v>0.01578710619294787</v>
+        <v>0.009524517497148291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J8">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>81.56645887710835</v>
@@ -948,10 +948,10 @@
         <v>734.0981298939751</v>
       </c>
       <c r="S8">
-        <v>0.006525405033440118</v>
+        <v>0.007002398142817594</v>
       </c>
       <c r="T8">
-        <v>0.006940125256331547</v>
+        <v>0.007200472609721116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J9">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>105.8533894074067</v>
+        <v>109.7134877175175</v>
       </c>
       <c r="R9">
-        <v>952.68050466666</v>
+        <v>987.4213894576571</v>
       </c>
       <c r="S9">
-        <v>0.008468385774678318</v>
+        <v>0.009418792150737794</v>
       </c>
       <c r="T9">
-        <v>0.00900659157462599</v>
+        <v>0.009685218337321609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J10">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>51.85618818813767</v>
+        <v>24.46840088091117</v>
       </c>
       <c r="R10">
-        <v>311.137129128826</v>
+        <v>146.810405285467</v>
       </c>
       <c r="S10">
-        <v>0.004148551206908637</v>
+        <v>0.002100587511643155</v>
       </c>
       <c r="T10">
-        <v>0.00294147411649356</v>
+        <v>0.001440004079880625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.04198427745533594</v>
+        <v>0.03933964692088724</v>
       </c>
       <c r="J11">
-        <v>0.04318183896476186</v>
+        <v>0.0397324321622614</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>99.97636473063557</v>
+        <v>134.6009674668719</v>
       </c>
       <c r="R11">
-        <v>899.7872825757202</v>
+        <v>1211.408707201847</v>
       </c>
       <c r="S11">
-        <v>0.007998217436670244</v>
+        <v>0.01155535716012304</v>
       </c>
       <c r="T11">
-        <v>0.008506541824362897</v>
+        <v>0.01188221963818976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H12">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I12">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J12">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>2.304409924675555</v>
+        <v>9.110597042246667</v>
       </c>
       <c r="R12">
-        <v>20.73968932208</v>
+        <v>81.99537338022</v>
       </c>
       <c r="S12">
-        <v>0.0001843552892769681</v>
+        <v>0.0007821355577628477</v>
       </c>
       <c r="T12">
-        <v>0.0001960719361775592</v>
+        <v>0.0008042595616384441</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H13">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I13">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J13">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>1.013035151833333</v>
+        <v>6.887551467100001</v>
       </c>
       <c r="R13">
-        <v>9.117316366499999</v>
+        <v>61.9879632039</v>
       </c>
       <c r="S13">
-        <v>8.104390909975175E-05</v>
+        <v>0.000591289339585603</v>
       </c>
       <c r="T13">
-        <v>8.619463121946706E-05</v>
+        <v>0.0006080149410631888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H14">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I14">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J14">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>1.314672794266667</v>
+        <v>9.264314078265334</v>
       </c>
       <c r="R14">
-        <v>11.8320551484</v>
+        <v>83.37882670438802</v>
       </c>
       <c r="S14">
-        <v>0.0001051752471191578</v>
+        <v>0.0007953320101080241</v>
       </c>
       <c r="T14">
-        <v>0.0001118596294225384</v>
+        <v>0.0008178292975658985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H15">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I15">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J15">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>0.6440409722066667</v>
+        <v>2.066135672738</v>
       </c>
       <c r="R15">
-        <v>3.86424583324</v>
+        <v>12.396814036428</v>
       </c>
       <c r="S15">
-        <v>5.152397516865256E-05</v>
+        <v>0.0001773756614760945</v>
       </c>
       <c r="T15">
-        <v>3.653237763705542E-05</v>
+        <v>0.0001215953511964378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02111333333333333</v>
+        <v>0.143548</v>
       </c>
       <c r="H16">
-        <v>0.06333999999999999</v>
+        <v>0.430644</v>
       </c>
       <c r="I16">
-        <v>0.0005214342938518265</v>
+        <v>0.003321878215571232</v>
       </c>
       <c r="J16">
-        <v>0.000536307710231945</v>
+        <v>0.003355045385051493</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>1.241681608088889</v>
+        <v>11.36583718003867</v>
       </c>
       <c r="R16">
-        <v>11.1751344728</v>
+        <v>102.292534620348</v>
       </c>
       <c r="S16">
-        <v>9.933587318729634E-05</v>
+        <v>0.0009757456466386621</v>
       </c>
       <c r="T16">
-        <v>0.0001056491357753248</v>
+        <v>0.001003346233587524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H17">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I17">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J17">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>367.6868488494813</v>
+        <v>81.33816998921166</v>
       </c>
       <c r="R17">
-        <v>2206.121093096888</v>
+        <v>488.02901993527</v>
       </c>
       <c r="S17">
-        <v>0.02941534605329676</v>
+        <v>0.006982799772278521</v>
       </c>
       <c r="T17">
-        <v>0.02085655322257637</v>
+        <v>0.00478687991113733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H18">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I18">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J18">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>161.6377792695875</v>
+        <v>61.491121761025</v>
       </c>
       <c r="R18">
-        <v>969.826675617525</v>
+        <v>368.94673056615</v>
       </c>
       <c r="S18">
-        <v>0.01293119736911695</v>
+        <v>0.005278950720024649</v>
       </c>
       <c r="T18">
-        <v>0.009168690576407484</v>
+        <v>0.003618849741888605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H19">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I19">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J19">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>209.76645336229</v>
+        <v>82.71053475827634</v>
       </c>
       <c r="R19">
-        <v>1258.59872017374</v>
+        <v>496.263208549658</v>
       </c>
       <c r="S19">
-        <v>0.01678154341209639</v>
+        <v>0.007100615902124802</v>
       </c>
       <c r="T19">
-        <v>0.01189872635518891</v>
+        <v>0.004867645747701635</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H20">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I20">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J20">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>102.7618363664035</v>
+        <v>18.4461779826995</v>
       </c>
       <c r="R20">
-        <v>411.047345465614</v>
+        <v>73.784711930798</v>
       </c>
       <c r="S20">
-        <v>0.008221058183746565</v>
+        <v>0.001583585756036648</v>
       </c>
       <c r="T20">
-        <v>0.003886020066862125</v>
+        <v>0.0007237244935504831</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3687995</v>
+        <v>1.281577</v>
       </c>
       <c r="H21">
-        <v>6.737598999999999</v>
+        <v>2.563154</v>
       </c>
       <c r="I21">
-        <v>0.08319897008576979</v>
+        <v>0.02965727643629401</v>
       </c>
       <c r="J21">
-        <v>0.05704809428719675</v>
+        <v>0.01996892560647838</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>198.1201316935133</v>
+        <v>101.4726468894197</v>
       </c>
       <c r="R21">
-        <v>1188.72079016108</v>
+        <v>608.8358813365179</v>
       </c>
       <c r="S21">
-        <v>0.01584982506751313</v>
+        <v>0.008711324285829384</v>
       </c>
       <c r="T21">
-        <v>0.01123810406616187</v>
+        <v>0.005971825712200323</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H22">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I22">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J22">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>9.32696637732</v>
+        <v>4.729346880943889</v>
       </c>
       <c r="R22">
-        <v>83.94269739588</v>
+        <v>42.564121928495</v>
       </c>
       <c r="S22">
-        <v>0.0007461674097803904</v>
+        <v>0.0004060096548479182</v>
       </c>
       <c r="T22">
-        <v>0.0007935898629327436</v>
+        <v>0.0004174943125753813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H23">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I23">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J23">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>4.100201400375</v>
+        <v>3.575355149308334</v>
       </c>
       <c r="R23">
-        <v>36.901812603375</v>
+        <v>32.178196343775</v>
       </c>
       <c r="S23">
-        <v>0.0003280205518843994</v>
+        <v>0.0003069406297893898</v>
       </c>
       <c r="T23">
-        <v>0.0003488678028509422</v>
+        <v>0.0003156229555264553</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H24">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I24">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J24">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>5.3210623761</v>
+        <v>4.809142001008111</v>
       </c>
       <c r="R24">
-        <v>47.8895613849</v>
+        <v>43.282278009073</v>
       </c>
       <c r="S24">
-        <v>0.00042569075193721</v>
+        <v>0.0004128599853420428</v>
       </c>
       <c r="T24">
-        <v>0.0004527454041191833</v>
+        <v>0.0004245384160502853</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H25">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I25">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J25">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>2.606718721815</v>
+        <v>1.072539182027167</v>
       </c>
       <c r="R25">
-        <v>15.64031233089</v>
+        <v>6.435235092163</v>
       </c>
       <c r="S25">
-        <v>0.000208540320399615</v>
+        <v>9.20764059114244E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001478626932889756</v>
+        <v>6.312062670004102E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.085455</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H26">
-        <v>0.256365</v>
+        <v>0.223549</v>
       </c>
       <c r="I26">
-        <v>0.002110475256446535</v>
+        <v>0.001724400091984872</v>
       </c>
       <c r="J26">
-        <v>0.002170674552156814</v>
+        <v>0.001741617300561197</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>5.025634756200001</v>
+        <v>5.900050937109222</v>
       </c>
       <c r="R26">
-        <v>45.2307128058</v>
+        <v>53.10045843398299</v>
       </c>
       <c r="S26">
-        <v>0.0004020562224449199</v>
+        <v>0.0005065134160940969</v>
       </c>
       <c r="T26">
-        <v>0.0004276087889649692</v>
+        <v>0.0005208409897090343</v>
       </c>
     </row>
   </sheetData>
